--- a/seronetTemplates/template/assessments.xlsx
+++ b/seronetTemplates/template/assessments.xlsx
@@ -10,8 +10,11 @@
     <sheet name="lookup" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="lookupresult_unit_reported1098">lookup!$A$1:$A$107</definedName>
-    <definedName name="lookupage_at_onset_unit_reported1099">lookup!$A$108:$A$117</definedName>
+    <definedName name="lookupsubject_user_defined_id1555">lookup!$A$1:$A$697</definedName>
+    <definedName name="lookupstudy_id1556">lookup!$A$698:$A$743</definedName>
+    <definedName name="lookupresult_unit_reported1557">lookup!$A$744:$A$850</definedName>
+    <definedName name="lookupplanned_visit_id1558">lookup!$A$851:$A$993</definedName>
+    <definedName name="lookupage_at_onset_unit_reported1559">lookup!$A$994:$A$1003</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -148,12 +151,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1024">
   <si>
     <t>assessments</t>
   </si>
   <si>
-    <t>Schema Version 3.35</t>
+    <t>Schema Version 3.36</t>
   </si>
   <si>
     <t>Please do not delete or edit this column</t>
@@ -231,6 +234,2229 @@
     <t>Who Is Assessed</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1160_1007</t>
+  </si>
+  <si>
+    <t>1161_1106</t>
+  </si>
+  <si>
+    <t>1162_1061</t>
+  </si>
+  <si>
+    <t>1163_1012</t>
+  </si>
+  <si>
+    <t>1164_1123</t>
+  </si>
+  <si>
+    <t>1165_1072</t>
+  </si>
+  <si>
+    <t>1166_1088</t>
+  </si>
+  <si>
+    <t>1167_1153</t>
+  </si>
+  <si>
+    <t>1168_1038</t>
+  </si>
+  <si>
+    <t>1169_1116</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>1171_1011</t>
+  </si>
+  <si>
+    <t>1172_1014</t>
+  </si>
+  <si>
+    <t>1173_1063</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>1175_1017</t>
+  </si>
+  <si>
+    <t>1176_1035</t>
+  </si>
+  <si>
+    <t>1177_1133</t>
+  </si>
+  <si>
+    <t>1178_1125</t>
+  </si>
+  <si>
+    <t>1179_1138</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>4732</t>
+  </si>
+  <si>
+    <t>4745</t>
+  </si>
+  <si>
+    <t>4746</t>
+  </si>
+  <si>
+    <t>4747</t>
+  </si>
+  <si>
+    <t>4748</t>
+  </si>
+  <si>
+    <t>4764</t>
+  </si>
+  <si>
+    <t>4765</t>
+  </si>
+  <si>
+    <t>4766</t>
+  </si>
+  <si>
+    <t>4767</t>
+  </si>
+  <si>
+    <t>4768</t>
+  </si>
+  <si>
+    <t>4772</t>
+  </si>
+  <si>
+    <t>4773</t>
+  </si>
+  <si>
+    <t>4774</t>
+  </si>
+  <si>
+    <t>4778</t>
+  </si>
+  <si>
+    <t>4779</t>
+  </si>
+  <si>
+    <t>4786</t>
+  </si>
+  <si>
+    <t>4787</t>
+  </si>
+  <si>
+    <t>4788</t>
+  </si>
+  <si>
+    <t>4789</t>
+  </si>
+  <si>
+    <t>4794</t>
+  </si>
+  <si>
+    <t>4795</t>
+  </si>
+  <si>
+    <t>4797</t>
+  </si>
+  <si>
+    <t>4798</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>4801</t>
+  </si>
+  <si>
+    <t>4804</t>
+  </si>
+  <si>
+    <t>4834</t>
+  </si>
+  <si>
+    <t>4835</t>
+  </si>
+  <si>
+    <t>4837</t>
+  </si>
+  <si>
+    <t>4840</t>
+  </si>
+  <si>
+    <t>4842</t>
+  </si>
+  <si>
+    <t>4843</t>
+  </si>
+  <si>
+    <t>4844</t>
+  </si>
+  <si>
+    <t>4848</t>
+  </si>
+  <si>
+    <t>4849</t>
+  </si>
+  <si>
+    <t>4850</t>
+  </si>
+  <si>
+    <t>4851</t>
+  </si>
+  <si>
+    <t>4853</t>
+  </si>
+  <si>
+    <t>4859</t>
+  </si>
+  <si>
+    <t>4862</t>
+  </si>
+  <si>
+    <t>4863</t>
+  </si>
+  <si>
+    <t>4864</t>
+  </si>
+  <si>
+    <t>4865</t>
+  </si>
+  <si>
+    <t>4866</t>
+  </si>
+  <si>
+    <t>4867</t>
+  </si>
+  <si>
+    <t>4868</t>
+  </si>
+  <si>
+    <t>4869</t>
+  </si>
+  <si>
+    <t>4870</t>
+  </si>
+  <si>
+    <t>4871</t>
+  </si>
+  <si>
+    <t>4872</t>
+  </si>
+  <si>
+    <t>4877</t>
+  </si>
+  <si>
+    <t>4878</t>
+  </si>
+  <si>
+    <t>4879</t>
+  </si>
+  <si>
+    <t>4880</t>
+  </si>
+  <si>
+    <t>4881</t>
+  </si>
+  <si>
+    <t>4882</t>
+  </si>
+  <si>
+    <t>4883</t>
+  </si>
+  <si>
+    <t>4884</t>
+  </si>
+  <si>
+    <t>4885</t>
+  </si>
+  <si>
+    <t>4886</t>
+  </si>
+  <si>
+    <t>4887</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>4924</t>
+  </si>
+  <si>
+    <t>4927</t>
+  </si>
+  <si>
+    <t>4928</t>
+  </si>
+  <si>
+    <t>4929</t>
+  </si>
+  <si>
+    <t>4931</t>
+  </si>
+  <si>
+    <t>4935</t>
+  </si>
+  <si>
+    <t>4937</t>
+  </si>
+  <si>
+    <t>4939</t>
+  </si>
+  <si>
+    <t>4945</t>
+  </si>
+  <si>
+    <t>4947</t>
+  </si>
+  <si>
+    <t>4953</t>
+  </si>
+  <si>
+    <t>4954</t>
+  </si>
+  <si>
+    <t>4955</t>
+  </si>
+  <si>
+    <t>4956</t>
+  </si>
+  <si>
+    <t>4962</t>
+  </si>
+  <si>
+    <t>4963</t>
+  </si>
+  <si>
+    <t>4964</t>
+  </si>
+  <si>
+    <t>4966</t>
+  </si>
+  <si>
+    <t>4969</t>
+  </si>
+  <si>
+    <t>4972</t>
+  </si>
+  <si>
+    <t>4973</t>
+  </si>
+  <si>
+    <t>4974</t>
+  </si>
+  <si>
+    <t>4976</t>
+  </si>
+  <si>
+    <t>4977</t>
+  </si>
+  <si>
+    <t>4978</t>
+  </si>
+  <si>
+    <t>4979</t>
+  </si>
+  <si>
+    <t>4981</t>
+  </si>
+  <si>
+    <t>4982</t>
+  </si>
+  <si>
+    <t>4983</t>
+  </si>
+  <si>
+    <t>4984</t>
+  </si>
+  <si>
+    <t>4985</t>
+  </si>
+  <si>
+    <t>4988</t>
+  </si>
+  <si>
+    <t>4989</t>
+  </si>
+  <si>
+    <t>4990</t>
+  </si>
+  <si>
+    <t>4991</t>
+  </si>
+  <si>
+    <t>4992</t>
+  </si>
+  <si>
+    <t>4994</t>
+  </si>
+  <si>
+    <t>4995</t>
+  </si>
+  <si>
+    <t>4996</t>
+  </si>
+  <si>
+    <t>4997</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>5065</t>
+  </si>
+  <si>
+    <t>5066</t>
+  </si>
+  <si>
+    <t>5067</t>
+  </si>
+  <si>
+    <t>5068</t>
+  </si>
+  <si>
+    <t>5093</t>
+  </si>
+  <si>
+    <t>5094</t>
+  </si>
+  <si>
+    <t>5098</t>
+  </si>
+  <si>
+    <t>5099</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5104</t>
+  </si>
+  <si>
+    <t>5106</t>
+  </si>
+  <si>
+    <t>5108</t>
+  </si>
+  <si>
+    <t>5109</t>
+  </si>
+  <si>
+    <t>5111</t>
+  </si>
+  <si>
+    <t>5112</t>
+  </si>
+  <si>
+    <t>5113</t>
+  </si>
+  <si>
+    <t>5114</t>
+  </si>
+  <si>
+    <t>5115</t>
+  </si>
+  <si>
+    <t>5116</t>
+  </si>
+  <si>
+    <t>5117</t>
+  </si>
+  <si>
+    <t>5119</t>
+  </si>
+  <si>
+    <t>5120</t>
+  </si>
+  <si>
+    <t>5121</t>
+  </si>
+  <si>
+    <t>5124</t>
+  </si>
+  <si>
+    <t>5127</t>
+  </si>
+  <si>
+    <t>5128</t>
+  </si>
+  <si>
+    <t>5130</t>
+  </si>
+  <si>
+    <t>5134</t>
+  </si>
+  <si>
+    <t>5136</t>
+  </si>
+  <si>
+    <t>5164</t>
+  </si>
+  <si>
+    <t>5165</t>
+  </si>
+  <si>
+    <t>5167</t>
+  </si>
+  <si>
+    <t>5168</t>
+  </si>
+  <si>
+    <t>5171</t>
+  </si>
+  <si>
+    <t>5173</t>
+  </si>
+  <si>
+    <t>5176</t>
+  </si>
+  <si>
+    <t>5178</t>
+  </si>
+  <si>
+    <t>5179</t>
+  </si>
+  <si>
+    <t>5181</t>
+  </si>
+  <si>
+    <t>5184</t>
+  </si>
+  <si>
+    <t>5185</t>
+  </si>
+  <si>
+    <t>5187</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>5220</t>
+  </si>
+  <si>
+    <t>5224</t>
+  </si>
+  <si>
+    <t>5225</t>
+  </si>
+  <si>
+    <t>5226</t>
+  </si>
+  <si>
+    <t>5229</t>
+  </si>
+  <si>
+    <t>5230</t>
+  </si>
+  <si>
+    <t>5231</t>
+  </si>
+  <si>
+    <t>5232</t>
+  </si>
+  <si>
+    <t>5238</t>
+  </si>
+  <si>
+    <t>5241</t>
+  </si>
+  <si>
+    <t>5244</t>
+  </si>
+  <si>
+    <t>5245</t>
+  </si>
+  <si>
+    <t>5246</t>
+  </si>
+  <si>
+    <t>5271</t>
+  </si>
+  <si>
+    <t>5273</t>
+  </si>
+  <si>
+    <t>5278</t>
+  </si>
+  <si>
+    <t>5279</t>
+  </si>
+  <si>
+    <t>5281</t>
+  </si>
+  <si>
+    <t>5282</t>
+  </si>
+  <si>
+    <t>5283</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>5316</t>
+  </si>
+  <si>
+    <t>5317</t>
+  </si>
+  <si>
+    <t>5318</t>
+  </si>
+  <si>
+    <t>5319</t>
+  </si>
+  <si>
+    <t>5320</t>
+  </si>
+  <si>
+    <t>5338</t>
+  </si>
+  <si>
+    <t>5341</t>
+  </si>
+  <si>
+    <t>5342</t>
+  </si>
+  <si>
+    <t>5352</t>
+  </si>
+  <si>
+    <t>5355</t>
+  </si>
+  <si>
+    <t>5356</t>
+  </si>
+  <si>
+    <t>5362</t>
+  </si>
+  <si>
+    <t>5416</t>
+  </si>
+  <si>
+    <t>5424</t>
+  </si>
+  <si>
+    <t>5431</t>
+  </si>
+  <si>
+    <t>5436</t>
+  </si>
+  <si>
+    <t>5445</t>
+  </si>
+  <si>
+    <t>5456</t>
+  </si>
+  <si>
+    <t>5457</t>
+  </si>
+  <si>
+    <t>5458</t>
+  </si>
+  <si>
+    <t>5468</t>
+  </si>
+  <si>
+    <t>5469</t>
+  </si>
+  <si>
+    <t>5470</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>7450</t>
+  </si>
+  <si>
+    <t>7451</t>
+  </si>
+  <si>
+    <t>7452</t>
+  </si>
+  <si>
+    <t>7453</t>
+  </si>
+  <si>
+    <t>7454</t>
+  </si>
+  <si>
+    <t>7455</t>
+  </si>
+  <si>
+    <t>7470</t>
+  </si>
+  <si>
+    <t>7480</t>
+  </si>
+  <si>
+    <t>7481</t>
+  </si>
+  <si>
+    <t>7482</t>
+  </si>
+  <si>
+    <t>7483</t>
+  </si>
+  <si>
+    <t>7484</t>
+  </si>
+  <si>
+    <t>7485</t>
+  </si>
+  <si>
+    <t>7486</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>OHC001</t>
+  </si>
+  <si>
+    <t>OHC003</t>
+  </si>
+  <si>
+    <t>OHC005</t>
+  </si>
+  <si>
+    <t>OHC006</t>
+  </si>
+  <si>
+    <t>OHC007</t>
+  </si>
+  <si>
+    <t>OHC008</t>
+  </si>
+  <si>
+    <t>OHC009</t>
+  </si>
+  <si>
+    <t>OHC010</t>
+  </si>
+  <si>
+    <t>OHC013</t>
+  </si>
+  <si>
+    <t>OHC014</t>
+  </si>
+  <si>
+    <t>OHC015</t>
+  </si>
+  <si>
+    <t>OHC019</t>
+  </si>
+  <si>
+    <t>OHC026</t>
+  </si>
+  <si>
+    <t>OHC028</t>
+  </si>
+  <si>
+    <t>PMID33035201_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33035201_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33035201_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33035201_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33035201_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33065030_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33065030_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33142304_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33142304_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33142304_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33142304_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33142304_human_subject-05</t>
+  </si>
+  <si>
+    <t>PMID33142304_human_subject-06</t>
+  </si>
+  <si>
+    <t>PMID33160316_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33169014_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33169014_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33169014_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33169014_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33276369_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33276369_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33276369_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33276369_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33276369_organism_subject-05</t>
+  </si>
+  <si>
+    <t>PMID33276369_organism_subject-06</t>
+  </si>
+  <si>
+    <t>PMID33276369_organism_subject-07</t>
+  </si>
+  <si>
+    <t>PMID33408181_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33408181_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33440148_aoc-01</t>
+  </si>
+  <si>
+    <t>PMID33440148_aoc-02</t>
+  </si>
+  <si>
+    <t>PMID33440148_aoc-03</t>
+  </si>
+  <si>
+    <t>PMID33472939_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33472939_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33472939_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33472939_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33478949_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33478949_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33478949_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33478949_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33479118_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33571162_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33571162_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33571162_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33602725_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33622794_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33622794_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33622794_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33666169_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33727353_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33727353_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33727353_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33727353_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33727353_organism_subject-05</t>
+  </si>
+  <si>
+    <t>PMID33727353_organism_subject-06</t>
+  </si>
+  <si>
+    <t>PMID33727353_organism_subject-07</t>
+  </si>
+  <si>
+    <t>PMID33743211_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33743211_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33830946_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33830946_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33846272_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33846272_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33846272_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33846272_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33846272_human_subject-11</t>
+  </si>
+  <si>
+    <t>PMID33846272_human_subject-12</t>
+  </si>
+  <si>
+    <t>PMID33846272_human_subject-13</t>
+  </si>
+  <si>
+    <t>PMID33846272_human_subject-14</t>
+  </si>
+  <si>
+    <t>PMID33961839_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33961839_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33993265_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID33993265_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID33993265_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID33993265_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID33993265_human_subject-05</t>
+  </si>
+  <si>
+    <t>PMID34003112_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34003112_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34095338_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34095338_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34095338_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34100011_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34100011_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34100011_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34100011_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34100011_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34100011_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34100011_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34100011_organism_subject-05</t>
+  </si>
+  <si>
+    <t>PMID34130883_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34130883_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34145263_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34145263_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34145263_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34151306_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34151306_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34151306_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34151306_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34151306_human_subject-05</t>
+  </si>
+  <si>
+    <t>PMID34161961_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34161961_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34161961_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34161961_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34161961_organism_subject-05</t>
+  </si>
+  <si>
+    <t>PMID34161961_organism_subject-06</t>
+  </si>
+  <si>
+    <t>PMID34230917_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34230917_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34230917_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34353890_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34353890_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34353890_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34353890_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34353890_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34353890_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34452006_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34452006_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34452006_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34452006_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34452006_organism_subject-05</t>
+  </si>
+  <si>
+    <t>PMID34652783_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34652783_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34652783_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34652783_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34687893_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34687893_human_subject-011</t>
+  </si>
+  <si>
+    <t>PMID34687893_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34687893_human_subject-021</t>
+  </si>
+  <si>
+    <t>PMID34696403_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34696403_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34696403_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34730254_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34730254_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34730254_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34730254_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34730254_human_subject-05</t>
+  </si>
+  <si>
+    <t>PMID34730254_human_subject-06</t>
+  </si>
+  <si>
+    <t>PMID34730254_human_subject-07</t>
+  </si>
+  <si>
+    <t>PMID34730254_human_subject-08</t>
+  </si>
+  <si>
+    <t>PMID34759001_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34759001_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34759001_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34794169_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34794169_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34794169_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34802457_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34802457_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34835131_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34835131_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34835131_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-011</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-021</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-031</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-041</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-05</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-051</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-06</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-061</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-07</t>
+  </si>
+  <si>
+    <t>PMID34877479_organism_subject-071</t>
+  </si>
+  <si>
+    <t>PMID34921308_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34921308_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34952892_human_subject-01</t>
+  </si>
+  <si>
+    <t>PMID34952892_human_subject-02</t>
+  </si>
+  <si>
+    <t>PMID34952892_human_subject-03</t>
+  </si>
+  <si>
+    <t>PMID34952892_human_subject-04</t>
+  </si>
+  <si>
+    <t>PMID34952892_human_subject-05</t>
+  </si>
+  <si>
+    <t>PMID34952892_human_subject-06</t>
+  </si>
+  <si>
+    <t>PMID35132398_organism_subject-01</t>
+  </si>
+  <si>
+    <t>PMID35132398_organism_subject-02</t>
+  </si>
+  <si>
+    <t>PMID35132398_organism_subject-03</t>
+  </si>
+  <si>
+    <t>PMID35132398_organism_subject-04</t>
+  </si>
+  <si>
+    <t>PMID35132398_organism_subject-05</t>
+  </si>
+  <si>
+    <t>PMID35132398_organism_subject-06</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>VeroE6</t>
+  </si>
+  <si>
+    <t>exp_sub_1</t>
+  </si>
+  <si>
+    <t>exp_sub_2</t>
+  </si>
+  <si>
+    <t>exp_sub_3</t>
+  </si>
+  <si>
+    <t>exp_sub_4</t>
+  </si>
+  <si>
+    <t>sub_1</t>
+  </si>
+  <si>
+    <t>sub_10</t>
+  </si>
+  <si>
+    <t>sub_100</t>
+  </si>
+  <si>
+    <t>sub_101</t>
+  </si>
+  <si>
+    <t>sub_102</t>
+  </si>
+  <si>
+    <t>sub_103</t>
+  </si>
+  <si>
+    <t>sub_104</t>
+  </si>
+  <si>
+    <t>sub_105</t>
+  </si>
+  <si>
+    <t>sub_106</t>
+  </si>
+  <si>
+    <t>sub_107</t>
+  </si>
+  <si>
+    <t>sub_108</t>
+  </si>
+  <si>
+    <t>sub_109</t>
+  </si>
+  <si>
+    <t>sub_11</t>
+  </si>
+  <si>
+    <t>sub_110</t>
+  </si>
+  <si>
+    <t>sub_111</t>
+  </si>
+  <si>
+    <t>sub_112</t>
+  </si>
+  <si>
+    <t>sub_113</t>
+  </si>
+  <si>
+    <t>sub_114</t>
+  </si>
+  <si>
+    <t>sub_115</t>
+  </si>
+  <si>
+    <t>sub_116</t>
+  </si>
+  <si>
+    <t>sub_117</t>
+  </si>
+  <si>
+    <t>sub_118</t>
+  </si>
+  <si>
+    <t>sub_119</t>
+  </si>
+  <si>
+    <t>sub_12</t>
+  </si>
+  <si>
+    <t>sub_120</t>
+  </si>
+  <si>
+    <t>sub_13</t>
+  </si>
+  <si>
+    <t>sub_14</t>
+  </si>
+  <si>
+    <t>sub_15</t>
+  </si>
+  <si>
+    <t>sub_16</t>
+  </si>
+  <si>
+    <t>sub_17</t>
+  </si>
+  <si>
+    <t>sub_18</t>
+  </si>
+  <si>
+    <t>sub_19</t>
+  </si>
+  <si>
+    <t>sub_2</t>
+  </si>
+  <si>
+    <t>sub_20</t>
+  </si>
+  <si>
+    <t>sub_21</t>
+  </si>
+  <si>
+    <t>sub_22</t>
+  </si>
+  <si>
+    <t>sub_23</t>
+  </si>
+  <si>
+    <t>sub_24</t>
+  </si>
+  <si>
+    <t>sub_25</t>
+  </si>
+  <si>
+    <t>sub_26</t>
+  </si>
+  <si>
+    <t>sub_27</t>
+  </si>
+  <si>
+    <t>sub_28</t>
+  </si>
+  <si>
+    <t>sub_29</t>
+  </si>
+  <si>
+    <t>sub_3</t>
+  </si>
+  <si>
+    <t>sub_30</t>
+  </si>
+  <si>
+    <t>sub_31</t>
+  </si>
+  <si>
+    <t>sub_32</t>
+  </si>
+  <si>
+    <t>sub_33</t>
+  </si>
+  <si>
+    <t>sub_34</t>
+  </si>
+  <si>
+    <t>sub_35</t>
+  </si>
+  <si>
+    <t>sub_36</t>
+  </si>
+  <si>
+    <t>sub_37</t>
+  </si>
+  <si>
+    <t>sub_38</t>
+  </si>
+  <si>
+    <t>sub_39</t>
+  </si>
+  <si>
+    <t>sub_4</t>
+  </si>
+  <si>
+    <t>sub_40</t>
+  </si>
+  <si>
+    <t>sub_41</t>
+  </si>
+  <si>
+    <t>sub_42</t>
+  </si>
+  <si>
+    <t>sub_43</t>
+  </si>
+  <si>
+    <t>sub_44</t>
+  </si>
+  <si>
+    <t>sub_45</t>
+  </si>
+  <si>
+    <t>sub_46</t>
+  </si>
+  <si>
+    <t>sub_47</t>
+  </si>
+  <si>
+    <t>sub_48</t>
+  </si>
+  <si>
+    <t>sub_49</t>
+  </si>
+  <si>
+    <t>sub_5</t>
+  </si>
+  <si>
+    <t>sub_50</t>
+  </si>
+  <si>
+    <t>sub_51</t>
+  </si>
+  <si>
+    <t>sub_52</t>
+  </si>
+  <si>
+    <t>sub_53</t>
+  </si>
+  <si>
+    <t>sub_54</t>
+  </si>
+  <si>
+    <t>sub_55</t>
+  </si>
+  <si>
+    <t>sub_56</t>
+  </si>
+  <si>
+    <t>sub_57</t>
+  </si>
+  <si>
+    <t>sub_58</t>
+  </si>
+  <si>
+    <t>sub_59</t>
+  </si>
+  <si>
+    <t>sub_6</t>
+  </si>
+  <si>
+    <t>sub_60</t>
+  </si>
+  <si>
+    <t>sub_61</t>
+  </si>
+  <si>
+    <t>sub_62</t>
+  </si>
+  <si>
+    <t>sub_63</t>
+  </si>
+  <si>
+    <t>sub_64</t>
+  </si>
+  <si>
+    <t>sub_65</t>
+  </si>
+  <si>
+    <t>sub_66</t>
+  </si>
+  <si>
+    <t>sub_67</t>
+  </si>
+  <si>
+    <t>sub_68</t>
+  </si>
+  <si>
+    <t>sub_69</t>
+  </si>
+  <si>
+    <t>sub_7</t>
+  </si>
+  <si>
+    <t>sub_70</t>
+  </si>
+  <si>
+    <t>sub_71</t>
+  </si>
+  <si>
+    <t>sub_72</t>
+  </si>
+  <si>
+    <t>sub_73</t>
+  </si>
+  <si>
+    <t>sub_74</t>
+  </si>
+  <si>
+    <t>sub_75</t>
+  </si>
+  <si>
+    <t>sub_76</t>
+  </si>
+  <si>
+    <t>sub_77</t>
+  </si>
+  <si>
+    <t>sub_78</t>
+  </si>
+  <si>
+    <t>sub_79</t>
+  </si>
+  <si>
+    <t>sub_8</t>
+  </si>
+  <si>
+    <t>sub_80</t>
+  </si>
+  <si>
+    <t>sub_81</t>
+  </si>
+  <si>
+    <t>sub_82</t>
+  </si>
+  <si>
+    <t>sub_83</t>
+  </si>
+  <si>
+    <t>sub_84</t>
+  </si>
+  <si>
+    <t>sub_85</t>
+  </si>
+  <si>
+    <t>sub_86</t>
+  </si>
+  <si>
+    <t>sub_87</t>
+  </si>
+  <si>
+    <t>sub_88</t>
+  </si>
+  <si>
+    <t>sub_89</t>
+  </si>
+  <si>
+    <t>sub_9</t>
+  </si>
+  <si>
+    <t>sub_90</t>
+  </si>
+  <si>
+    <t>sub_91</t>
+  </si>
+  <si>
+    <t>sub_92</t>
+  </si>
+  <si>
+    <t>sub_93</t>
+  </si>
+  <si>
+    <t>sub_94</t>
+  </si>
+  <si>
+    <t>sub_95</t>
+  </si>
+  <si>
+    <t>sub_96</t>
+  </si>
+  <si>
+    <t>sub_97</t>
+  </si>
+  <si>
+    <t>sub_98</t>
+  </si>
+  <si>
+    <t>sub_99</t>
+  </si>
+  <si>
+    <t>subj_Huh</t>
+  </si>
+  <si>
+    <t>PMID33035201</t>
+  </si>
+  <si>
+    <t>PMID33065030</t>
+  </si>
+  <si>
+    <t>PMID33142304</t>
+  </si>
+  <si>
+    <t>PMID33160316</t>
+  </si>
+  <si>
+    <t>PMID33169014</t>
+  </si>
+  <si>
+    <t>PMID33276369</t>
+  </si>
+  <si>
+    <t>PMID33408181_study</t>
+  </si>
+  <si>
+    <t>PMID33440148</t>
+  </si>
+  <si>
+    <t>PMID33472939</t>
+  </si>
+  <si>
+    <t>PMID33478949</t>
+  </si>
+  <si>
+    <t>PMID33479118</t>
+  </si>
+  <si>
+    <t>PMID33521695</t>
+  </si>
+  <si>
+    <t>PMID33571162</t>
+  </si>
+  <si>
+    <t>PMID33602725</t>
+  </si>
+  <si>
+    <t>PMID33622794_study-01</t>
+  </si>
+  <si>
+    <t>PMID33666169</t>
+  </si>
+  <si>
+    <t>PMID33727353</t>
+  </si>
+  <si>
+    <t>PMID33743211</t>
+  </si>
+  <si>
+    <t>PMID33830946</t>
+  </si>
+  <si>
+    <t>PMID33846272_study-01</t>
+  </si>
+  <si>
+    <t>PMID33961839</t>
+  </si>
+  <si>
+    <t>PMID33993265_study-01</t>
+  </si>
+  <si>
+    <t>PMID34003112</t>
+  </si>
+  <si>
+    <t>PMID34086877_study-01</t>
+  </si>
+  <si>
+    <t>PMID34095338</t>
+  </si>
+  <si>
+    <t>PMID34100011</t>
+  </si>
+  <si>
+    <t>PMID34130883</t>
+  </si>
+  <si>
+    <t>PMID34145263</t>
+  </si>
+  <si>
+    <t>PMID34151306</t>
+  </si>
+  <si>
+    <t>PMID34161961_study-01</t>
+  </si>
+  <si>
+    <t>PMID34353890</t>
+  </si>
+  <si>
+    <t>PMID34452006_study-01</t>
+  </si>
+  <si>
+    <t>PMID34652783_study-01</t>
+  </si>
+  <si>
+    <t>PMID34687893_study-011</t>
+  </si>
+  <si>
+    <t>PMID34696403</t>
+  </si>
+  <si>
+    <t>PMID34730254</t>
+  </si>
+  <si>
+    <t>PMID34759001_study</t>
+  </si>
+  <si>
+    <t>PMID34794169_study-01</t>
+  </si>
+  <si>
+    <t>PMID34802457</t>
+  </si>
+  <si>
+    <t>PMID34835131</t>
+  </si>
+  <si>
+    <t>PMID34877479</t>
+  </si>
+  <si>
+    <t>PMID34910927_study-01</t>
+  </si>
+  <si>
+    <t>PMID34921308</t>
+  </si>
+  <si>
+    <t>PMID34952892_study-01</t>
+  </si>
+  <si>
+    <t>PMID35132398_study-01</t>
+  </si>
+  <si>
     <t>AFU</t>
   </si>
   <si>
@@ -363,7 +2589,7 @@
     <t>L/sec</t>
   </si>
   <si>
-    <t>M</t>
+    <t>m</t>
   </si>
   <si>
     <t>MFI at 90th percentile</t>
@@ -396,7 +2622,7 @@
     <t>mL/min/mmHg</t>
   </si>
   <si>
-    <t>mM</t>
+    <t>mm</t>
   </si>
   <si>
     <t>mmHg</t>
@@ -547,6 +2773,432 @@
   </si>
   <si>
     <t>Yes, No, or Unknown Response</t>
+  </si>
+  <si>
+    <t>PMID33035201_pv_01</t>
+  </si>
+  <si>
+    <t>PMID33065030_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33065030_pv-02</t>
+  </si>
+  <si>
+    <t>PMID33065030_pv-03</t>
+  </si>
+  <si>
+    <t>PMID33065030_pv-04</t>
+  </si>
+  <si>
+    <t>PMID33065030_pv-05</t>
+  </si>
+  <si>
+    <t>PMID33142304_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33142304_pv-02</t>
+  </si>
+  <si>
+    <t>PMID33142304_pv-03</t>
+  </si>
+  <si>
+    <t>PMID33142304_pv-04</t>
+  </si>
+  <si>
+    <t>PMID33160316_pv_01</t>
+  </si>
+  <si>
+    <t>PMID33169014_pv_01</t>
+  </si>
+  <si>
+    <t>PMID33169014_pv_02</t>
+  </si>
+  <si>
+    <t>PMID33276369_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33276369_pv-02</t>
+  </si>
+  <si>
+    <t>PMID33408181_Convalescent_Dan21</t>
+  </si>
+  <si>
+    <t>PMID33408181_Healthy_Dan21</t>
+  </si>
+  <si>
+    <t>PMID33440148_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33440148_pv-02</t>
+  </si>
+  <si>
+    <t>PMID33440148_pv-03</t>
+  </si>
+  <si>
+    <t>PMID33472939_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33472939_pv-02</t>
+  </si>
+  <si>
+    <t>PMID33472939_pv-03</t>
+  </si>
+  <si>
+    <t>PMID33472939_pv-04</t>
+  </si>
+  <si>
+    <t>PMID33472939_pv-05</t>
+  </si>
+  <si>
+    <t>PMID33472939_pv-06</t>
+  </si>
+  <si>
+    <t>PMID33472939_pv-07</t>
+  </si>
+  <si>
+    <t>PMID33478949_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33478949_pv-02</t>
+  </si>
+  <si>
+    <t>PMID33479118_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33521695_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33571162_pv_01</t>
+  </si>
+  <si>
+    <t>PMID33571162_pv_02</t>
+  </si>
+  <si>
+    <t>PMID33602725_pv_01</t>
+  </si>
+  <si>
+    <t>PMID33622794_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33622794_pv-02</t>
+  </si>
+  <si>
+    <t>PMID33666169_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33727353_pv_01</t>
+  </si>
+  <si>
+    <t>PMID33743211_pv_01</t>
+  </si>
+  <si>
+    <t>PMID33830946_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33846272_pv-11</t>
+  </si>
+  <si>
+    <t>PMID33846272_pv-12</t>
+  </si>
+  <si>
+    <t>PMID33846272_pv-13</t>
+  </si>
+  <si>
+    <t>PMID33846272_pv-14</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-02</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-03</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-04</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-05</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-06</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-07</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-08</t>
+  </si>
+  <si>
+    <t>PMID33961839_pv-09</t>
+  </si>
+  <si>
+    <t>PMID33993265_pv-01</t>
+  </si>
+  <si>
+    <t>PMID33993265_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34003112_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34086877_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-04</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-05</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-06</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-07</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-08</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-09</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-10</t>
+  </si>
+  <si>
+    <t>PMID34095338_pv-11</t>
+  </si>
+  <si>
+    <t>PMID34100011_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34100011_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34130883_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34145263_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34145263_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34145263_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34145263_pv-04</t>
+  </si>
+  <si>
+    <t>PMID34145263_pv-05</t>
+  </si>
+  <si>
+    <t>PMID34151306_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34151306_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34161961_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34161961_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34161961_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34161961_pv-04</t>
+  </si>
+  <si>
+    <t>PMID34161961_pv-05</t>
+  </si>
+  <si>
+    <t>PMID34161961_pv-06</t>
+  </si>
+  <si>
+    <t>PMID34161961_pv-07</t>
+  </si>
+  <si>
+    <t>PMID34161961_pv-08</t>
+  </si>
+  <si>
+    <t>PMID34353890_pv_day1</t>
+  </si>
+  <si>
+    <t>PMID34353890_pv_day2</t>
+  </si>
+  <si>
+    <t>PMID34353890_pv_day3</t>
+  </si>
+  <si>
+    <t>PMID34353890_pv_day4</t>
+  </si>
+  <si>
+    <t>PMID34353890_pv_day5</t>
+  </si>
+  <si>
+    <t>PMID34353890_pv_day6</t>
+  </si>
+  <si>
+    <t>PMID34353890_pv_day7</t>
+  </si>
+  <si>
+    <t>PMID34452006_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34452006_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34452006_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34452006_pv-04</t>
+  </si>
+  <si>
+    <t>PMID34452006_pv-05</t>
+  </si>
+  <si>
+    <t>PMID34452006_pv-06</t>
+  </si>
+  <si>
+    <t>PMID34452006_pv-07</t>
+  </si>
+  <si>
+    <t>PMID34652783_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34652783_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34652783_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34687893_pv-011</t>
+  </si>
+  <si>
+    <t>PMID34687893_pv-021</t>
+  </si>
+  <si>
+    <t>PMID34696403_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34696403_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34696403_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34730254_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34730254_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34759001_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34759001_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34759001_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-04</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-05</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-06</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-07</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-08</t>
+  </si>
+  <si>
+    <t>PMID34794169_pv-14</t>
+  </si>
+  <si>
+    <t>PMID34802457_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34835131_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34835131_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34835131_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34877479_pv-011</t>
+  </si>
+  <si>
+    <t>PMID34910927_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34921308_pv-01</t>
+  </si>
+  <si>
+    <t>PMID34921308_pv-02</t>
+  </si>
+  <si>
+    <t>PMID34921308_pv-03</t>
+  </si>
+  <si>
+    <t>PMID34921308_pv-04</t>
+  </si>
+  <si>
+    <t>PMID34921308_pv-05</t>
+  </si>
+  <si>
+    <t>PMID34921308_pv-06</t>
+  </si>
+  <si>
+    <t>PMID34952892_pv-01</t>
+  </si>
+  <si>
+    <t>PMID35132398_pv-01</t>
+  </si>
+  <si>
+    <t>PMID35132398_pv-02</t>
+  </si>
+  <si>
+    <t>PMID35132398_pv-03</t>
+  </si>
+  <si>
+    <t>PMID35132398_pv-04</t>
+  </si>
+  <si>
+    <t>PMID35132398_pv-05</t>
+  </si>
+  <si>
+    <t>PMID35132398_pv-06</t>
+  </si>
+  <si>
+    <t>PMID35132398_pv-07</t>
   </si>
   <si>
     <t>d.p.c.</t>
@@ -6484,12 +9136,21 @@
       <c r="Y200" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="5">
+    <dataValidation type="list" sqref="B4:B201" allowBlank="true" errorStyle="information" promptTitle="Subject ID" prompt="Please choose user defined ID value from the list" errorTitle="Subject ID" error="User defined ID value not selected" showInputMessage="true">
+      <formula1>lookupsubject_user_defined_id1555</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="D4:D201" allowBlank="true" errorStyle="information" promptTitle="Study ID" prompt="Please choose user defined ID value from the list" errorTitle="Study ID" error="User defined ID value not selected" showInputMessage="true">
+      <formula1>lookupstudy_id1556</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="T4:T201" allowBlank="true" errorStyle="information" promptTitle="Result Unit Reported" prompt="Please choose preferred value from the list" errorTitle="Result Unit Reported" error="Preferred value was not selected" showInputMessage="true">
-      <formula1>lookupresult_unit_reported1098</formula1>
+      <formula1>lookupresult_unit_reported1557</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K4:K201" allowBlank="true" errorStyle="information" promptTitle="Planned Visit ID" prompt="Please choose user defined ID value from the list" errorTitle="Planned Visit ID" error="User defined ID value not selected" showInputMessage="true">
+      <formula1>lookupplanned_visit_id1558</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O4:O201" allowBlank="true" errorStyle="information" promptTitle="Age At Onset Unit Reported" prompt="Please choose preferred value from the list" errorTitle="Age At Onset Unit Reported" error="Preferred value was not selected" showInputMessage="true">
-      <formula1>lookupage_at_onset_unit_reported1099</formula1>
+      <formula1>lookupage_at_onset_unit_reported1559</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6500,7 +9161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:A117"/>
+  <dimension ref="A2:A1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7036,49 +9697,4464 @@
         <v>132</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="s">
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
